--- a/xlsx/超重型坦克_intext.xlsx
+++ b/xlsx/超重型坦克_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_超重型坦克</t>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_超重型坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TOG2</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>納粹德軍</t>
+    <t>纳粹德军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E8%99%9F%E5%9D%A6%E5%85%8B%E9%BC%A0%E5%BC%8F</t>
   </si>
   <si>
-    <t>八號坦克鼠式</t>
+    <t>八号坦克鼠式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P-1000%E8%B6%85%E7%B4%9A%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>P-1000超級坦克</t>
+    <t>P-1000超级坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P-1500_%E6%80%AA%E7%89%A9%E5%9D%A6%E5%85%8B</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/T28%E8%B6%85%E9%87%8D%E5%9E%8B%E5%9D%A6%E5%85%8B</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
+    <t>纳粹德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/E%E7%B3%BB%E5%9D%A6%E5%85%8B</t>
@@ -137,19 +137,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E8%99%9F%E7%8D%85%E5%BC%8F%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>七號獅式戰車</t>
+    <t>七号狮式战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D/%E5%8D%81%E8%99%9F%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>九/十號坦克</t>
+    <t>九/十号坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/E-100%E8%99%8E%E9%BC%A0%E5%BC%8F%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>E-100虎鼠式戰車</t>
+    <t>E-100虎鼠式战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P-1500%E6%80%AA%E7%89%A9%E5%9D%A6%E5%85%8B</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/2C%E8%B6%85%E7%B4%9A%E9%87%8D%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>2C超級重戰車</t>
+    <t>2C超级重战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FCM_F1%E8%B6%85%E9%87%8D%E5%9E%8B%E5%9D%A6%E5%85%8B</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E9%BE%9C%E9%87%8D%E6%94%BB%E6%93%8A%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>土龜重攻擊坦克</t>
+    <t>土龟重攻击坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TOG1</t>
@@ -203,25 +203,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>小戰車</t>
+    <t>小战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E5%9E%8B%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>輕型戰車</t>
+    <t>轻型战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9E%8B%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>中型戰車</t>
+    <t>中型战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%9E%8B%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>重型戰車</t>
+    <t>重型战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%B5%B0%E7%A0%B2</t>
@@ -233,19 +233,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%85%E9%80%90%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>驅逐戰車</t>
+    <t>驱逐战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%8A%9B%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>主力戰車</t>
+    <t>主力战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8%E6%90%AC%E9%81%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>武器搬運車</t>
+    <t>武器搬运车</t>
   </si>
 </sst>
 </file>
